--- a/Planilha_CNPJ_Atualizada.xlsx
+++ b/Planilha_CNPJ_Atualizada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>CNPJ</t>
   </si>
@@ -49,64 +49,79 @@
     <t>TELEFONE</t>
   </si>
   <si>
-    <t>AGENCIA DE DADOS LTDA</t>
+    <t>53.405.671 GUSTAVO XAVIER MAURMANN</t>
   </si>
   <si>
     <t>IFOOD.COM AGENCIA DE RESTAURANTES ONLINE S.A.</t>
   </si>
   <si>
+    <t>KELVIN CRISOSTOMO GOMES 06951099103</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>AGENCIA DE DADOS</t>
-  </si>
-  <si>
     <t>MICRO EMPRESA</t>
   </si>
   <si>
     <t>DEMAIS</t>
   </si>
   <si>
-    <t>SETOR COMERCIAL SUL QUADRA 01 BLOCO G</t>
+    <t>QUADRA CNA 3</t>
   </si>
   <si>
     <t>AV DOS AUTONOMISTAS 1496</t>
   </si>
   <si>
+    <t>12A RUA QE 40</t>
+  </si>
+  <si>
     <t>BRASILIA</t>
   </si>
   <si>
     <t>OSASCO</t>
   </si>
   <si>
-    <t>ASA SUL</t>
+    <t>TAGUATINGA NORTE (TAGUATINGA)</t>
   </si>
   <si>
     <t>VILA YARA</t>
   </si>
   <si>
+    <t>GUARA II</t>
+  </si>
+  <si>
     <t>DF</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>70.309-900</t>
+    <t>72.110-035</t>
   </si>
   <si>
     <t>06.020-902</t>
   </si>
   <si>
-    <t>administrativo@intraseg.com.br</t>
+    <t>71.070-400</t>
+  </si>
+  <si>
+    <t>gustavo.maurmann2@gmail.com</t>
   </si>
   <si>
     <t>juridico@ifood.com.br</t>
   </si>
   <si>
-    <t>(61) 8549-3011</t>
+    <t>kelvin753@outlook.com</t>
+  </si>
+  <si>
+    <t>(61) 9525-3612</t>
   </si>
   <si>
     <t>(11) 3634-3360</t>
+  </si>
+  <si>
+    <t>(61) 9456-3762</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,14 +522,11 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>29148959000150</v>
+        <v>53405671000107</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -522,22 +534,22 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -554,57 +566,89 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>4712500000107</v>
+        <v>48423922000138</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>53405671000107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha_CNPJ_Atualizada.xlsx
+++ b/Planilha_CNPJ_Atualizada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>CNPJ</t>
   </si>
@@ -49,16 +49,22 @@
     <t>TELEFONE</t>
   </si>
   <si>
+    <t>AGENCIA DE DADOS LTDA</t>
+  </si>
+  <si>
+    <t>IFOOD.COM AGENCIA DE RESTAURANTES ONLINE S.A.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>53.405.671 GUSTAVO XAVIER MAURMANN</t>
   </si>
   <si>
-    <t>IFOOD.COM AGENCIA DE RESTAURANTES ONLINE S.A.</t>
-  </si>
-  <si>
-    <t>KELVIN CRISOSTOMO GOMES 06951099103</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>51.041.667 LUCAS CALEB ALVES PEIXOTO DE QUADRO</t>
+  </si>
+  <si>
+    <t>AGENCIA DE DADOS</t>
   </si>
   <si>
     <t>MICRO EMPRESA</t>
@@ -67,61 +73,67 @@
     <t>DEMAIS</t>
   </si>
   <si>
+    <t>SETOR COMERCIAL SUL QUADRA 01 BLOCO G</t>
+  </si>
+  <si>
+    <t>AV DOS AUTONOMISTAS 1496</t>
+  </si>
+  <si>
     <t>QUADRA CNA 3</t>
   </si>
   <si>
-    <t>AV DOS AUTONOMISTAS 1496</t>
-  </si>
-  <si>
-    <t>12A RUA QE 40</t>
-  </si>
-  <si>
     <t>BRASILIA</t>
   </si>
   <si>
     <t>OSASCO</t>
   </si>
   <si>
+    <t>ASA SUL</t>
+  </si>
+  <si>
+    <t>VILA YARA</t>
+  </si>
+  <si>
     <t>TAGUATINGA NORTE (TAGUATINGA)</t>
   </si>
   <si>
-    <t>VILA YARA</t>
-  </si>
-  <si>
-    <t>GUARA II</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
+    <t>70.309-900</t>
+  </si>
+  <si>
+    <t>06.020-902</t>
+  </si>
+  <si>
     <t>72.110-035</t>
   </si>
   <si>
-    <t>06.020-902</t>
-  </si>
-  <si>
-    <t>71.070-400</t>
+    <t>administrativo@intraseg.com.br</t>
+  </si>
+  <si>
+    <t>juridico@ifood.com.br</t>
   </si>
   <si>
     <t>gustavo.maurmann2@gmail.com</t>
   </si>
   <si>
-    <t>juridico@ifood.com.br</t>
-  </si>
-  <si>
-    <t>kelvin753@outlook.com</t>
+    <t>soucaleb51@gmail.com</t>
+  </si>
+  <si>
+    <t>(61) 8549-3011</t>
+  </si>
+  <si>
+    <t>(11) 3634-3360</t>
   </si>
   <si>
     <t>(61) 9525-3612</t>
   </si>
   <si>
-    <t>(11) 3634-3360</t>
-  </si>
-  <si>
-    <t>(61) 9456-3762</t>
+    <t>(66) 9156-4931</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,34 +534,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>53405671000107</v>
+        <v>29148959000150</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,28 +575,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -591,29 +606,32 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -623,32 +641,61 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>51041667000173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
